--- a/DataAnalysis/pandas/ex2.xlsx
+++ b/DataAnalysis/pandas/ex2.xlsx
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.401240373571835</v>
+        <v>1.394662734781639</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.223299430152305</v>
+        <v>0.693975030480332</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.53367531657323</v>
+        <v>0.7198196998150294</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2957221695782851</v>
+        <v>-0.5858630775137328</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9431802581663341</v>
+        <v>-0.7693903008798219</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1484092937357701</v>
+        <v>-0.2047251530596243</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.167058076305382</v>
+        <v>1.631191630111168</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1475502406630972</v>
+        <v>0.2724642729503713</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.002979762579346</v>
+        <v>-1.249469861632149</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -456,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02915798250166963</v>
+        <v>-1.195066885190799</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1011403096305455</v>
+        <v>0.3851425863508577</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.6819594890443879</v>
+        <v>-0.8761253594208602</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.159788083830696</v>
+        <v>0.03079657885820688</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -488,7 +488,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7737178587027047</v>
+        <v>0.1559146546833391</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -496,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.5742510965907121</v>
+        <v>1.181921795000102</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -504,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5531853844585773</v>
+        <v>-1.073592843512012</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1651675691797271</v>
+        <v>-1.023856742163656</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -520,7 +520,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.5154487693663025</v>
+        <v>-1.593969592321361</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -528,7 +528,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9060730880093663</v>
+        <v>-0.72356057393302</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7482238667157266</v>
+        <v>0.5478079396202856</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -544,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6141836318730559</v>
+        <v>0.3836377971580288</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -552,7 +552,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5642674744272976</v>
+        <v>-1.195190495472901</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.333619108043158</v>
+        <v>0.2671796062194831</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4203679566444709</v>
+        <v>-0.6976705189906678</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -576,7 +576,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.926149008457182</v>
+        <v>0.5275910812092154</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.2001140565635063</v>
+        <v>1.42706503518339</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -592,7 +592,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1223649279964448</v>
+        <v>0.3290592177468808</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -600,7 +600,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.113460012919863</v>
+        <v>-0.58771520211311</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -608,7 +608,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.4693215791307368</v>
+        <v>-0.9946940381685868</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -616,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1730731267142389</v>
+        <v>0.03500256618339048</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.00233262053497</v>
+        <v>-2.254072800808425</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -632,7 +632,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.830534828688505</v>
+        <v>1.959655634139636</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -640,7 +640,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07939259837424847</v>
+        <v>0.7105273847864185</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -648,7 +648,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.448370964065782</v>
+        <v>-1.286118553898764</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -656,7 +656,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.2317280386139551</v>
+        <v>0.32598915932622</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -664,7 +664,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3688915327863835</v>
+        <v>0.889532129408558</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -672,7 +672,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8556260427491655</v>
+        <v>-0.1420296369164819</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -680,7 +680,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.5029771989342782</v>
+        <v>-0.1135692790088</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -688,7 +688,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.463120602415226</v>
+        <v>-1.925141375403304</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -696,7 +696,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8120535854617782</v>
+        <v>-0.09450596463633527</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.170604963433272</v>
+        <v>-0.2887488696277363</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -712,7 +712,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.614703511708785</v>
+        <v>0.4107830618221445</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -720,7 +720,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9475513819623694</v>
+        <v>-0.5101141144557895</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -728,7 +728,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.379738701117171</v>
+        <v>1.279252459571079</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -736,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5248567528470618</v>
+        <v>0.3777791211951374</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -744,7 +744,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9843995089155788</v>
+        <v>-0.663300560147797</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -752,7 +752,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2474339491399931</v>
+        <v>0.1773183990466608</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -760,7 +760,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.277783855963173</v>
+        <v>0.5427974672295943</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -768,7 +768,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1035944734207436</v>
+        <v>-1.018363379976723</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -776,7 +776,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.802697199526734</v>
+        <v>1.21908320557561</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -784,7 +784,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6787393525505162</v>
+        <v>-1.900534085140668</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -792,7 +792,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5900189783927134</v>
+        <v>1.770815681655293</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -800,7 +800,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001511995382854834</v>
+        <v>0.175787825611258</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -808,7 +808,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4655924418819045</v>
+        <v>-1.376925733672461</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -816,7 +816,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.9992135898395904</v>
+        <v>1.475641519633038</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -824,7 +824,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2850619257900968</v>
+        <v>-0.7409150769114335</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -832,7 +832,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6107785870173259</v>
+        <v>0.8737377857046904</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -840,7 +840,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.5815870712814587</v>
+        <v>-1.313096006141225</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -848,7 +848,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.9410657012579255</v>
+        <v>0.6025573754802777</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -856,7 +856,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2626120792491618</v>
+        <v>-0.1991547935719891</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.5233555371642232</v>
+        <v>-0.09752729710682413</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -872,7 +872,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.664191653997436</v>
+        <v>-0.8908536089270861</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -880,7 +880,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.4395426465372731</v>
+        <v>2.607744782548602</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -888,7 +888,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.06539209377108</v>
+        <v>-1.112177853858128</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -896,7 +896,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.04451663437316437</v>
+        <v>0.5828974298214562</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.5361322327454316</v>
+        <v>-2.036719905036347</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -912,7 +912,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06294630851946258</v>
+        <v>0.9595996111831852</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -920,7 +920,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.321800172106804</v>
+        <v>1.401510303490068</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -928,7 +928,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.452587851090718</v>
+        <v>0.7610138444236653</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -936,7 +936,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.2971858405764878</v>
+        <v>0.5222116240586128</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -944,7 +944,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.1408144076405486</v>
+        <v>-2.677944060214128</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -952,7 +952,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2106350676109026</v>
+        <v>-0.3887895832866087</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -960,7 +960,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.545375412285079</v>
+        <v>0.08563705759231345</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -968,7 +968,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.166657688860604</v>
+        <v>0.6861961418933151</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -976,7 +976,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.058681265611894</v>
+        <v>1.506952180757357</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -984,7 +984,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.104554570935703</v>
+        <v>-0.3402427710698147</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -992,7 +992,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.2310197388699064</v>
+        <v>-0.8601756533570059</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.198278633183942</v>
+        <v>0.8648092600922864</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5865353410375774</v>
+        <v>0.2885974483988542</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.01939583712485</v>
+        <v>1.319678418992577</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-2.482344418646618</v>
+        <v>-0.3837934666778433</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4576562902733198</v>
+        <v>-0.4304482322987353</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1172544158097829</v>
+        <v>-1.516748964396246</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.316790102401638</v>
+        <v>0.9852721383435606</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1004869408787097</v>
+        <v>-0.9245679496582436</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.397253165829608</v>
+        <v>-0.5433248213830046</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.695032601687505</v>
+        <v>-1.340791810115435</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.8029725818819634</v>
+        <v>-0.5327065496396686</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9389109749008717</v>
+        <v>1.447666172283544</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03369814735542241</v>
+        <v>-0.09598955430701452</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6149849266394533</v>
+        <v>0.01684345394690366</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.05727089484537506</v>
+        <v>0.0913337662158102</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.435907307416394</v>
+        <v>-0.1796658128522081</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.176959738552479</v>
+        <v>-0.3113406090378361</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.4127997823931218</v>
+        <v>-0.1230896060865155</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.9757852894190432</v>
+        <v>-1.404066235312565</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.685187918978172</v>
+        <v>0.8070131308919246</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.06474774981189292</v>
+        <v>-0.08876703698328105</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.284310956228849</v>
+        <v>0.1584634547047775</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3513815085683094</v>
+        <v>-0.6254995590119942</v>
       </c>
     </row>
   </sheetData>
